--- a/modules/warehouse/uploads/file_sample/Sample_import_opening_stock_en.xlsx
+++ b/modules/warehouse/uploads/file_sample/Sample_import_opening_stock_en.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkKING\Documents\project\perfexsof\perfexsoft\modules\warehouse\uploads\file_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E49606-F8BE-41FB-92C9-DA5A6755FF9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <t>(</t>
@@ -74,9 +75,6 @@
     </r>
   </si>
   <si>
-    <t>Lot Number</t>
-  </si>
-  <si>
     <r>
       <t>(</t>
     </r>
@@ -104,11 +102,20 @@
     <t>Expiry date
 (yyyy-mm-dd)</t>
   </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Rack</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,20 +495,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="53.54296875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="7" width="53.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -509,13 +516,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
